--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/实收资本.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/实收资本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>440.80082</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1502.19884</v>
-      </c>
-      <c r="D2" t="n">
-        <v>110.12414</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2628</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20.80929</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1242.23808</v>
-      </c>
-      <c r="H2" t="n">
-        <v>314.46711</v>
-      </c>
-      <c r="I2" t="n">
-        <v>365.09587</v>
-      </c>
-      <c r="J2" t="n">
-        <v>151.01611</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20156.13739</v>
-      </c>
-      <c r="L2" t="n">
-        <v>112.61166</v>
-      </c>
-      <c r="M2" t="n">
-        <v>16.87283</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20.82369</v>
-      </c>
-      <c r="O2" t="n">
-        <v>632.81577</v>
-      </c>
-      <c r="P2" t="n">
-        <v>572.98095</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>105.69748</v>
-      </c>
-      <c r="R2" t="n">
-        <v>55.94896</v>
-      </c>
-      <c r="S2" t="n">
-        <v>66.93210999999999</v>
-      </c>
-      <c r="T2" t="n">
-        <v>99.20457</v>
-      </c>
-      <c r="U2" t="n">
-        <v>109.6379</v>
-      </c>
-      <c r="V2" t="n">
-        <v>322.91319</v>
-      </c>
-      <c r="W2" t="n">
-        <v>255.56515</v>
-      </c>
-      <c r="X2" t="n">
-        <v>959.97563</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3566.93651</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>706.37789</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>414.61715</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>24.65062</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>709.37785</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1681.82347</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>581.7417799999999</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>521.8486</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>224.96992</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>146.65239</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>708.72578</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>145.06642</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>160.70183</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>326.23379</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>309.92164</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2181.74398</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>109.04772</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>469.93982</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1759.3594</v>
-      </c>
-      <c r="D3" t="n">
-        <v>121.78759</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.15449</v>
-      </c>
-      <c r="F3" t="n">
-        <v>23.74718</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1500.31189</v>
-      </c>
-      <c r="H3" t="n">
-        <v>251.50674</v>
-      </c>
-      <c r="I3" t="n">
-        <v>397.59724</v>
-      </c>
-      <c r="J3" t="n">
-        <v>169.74219</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21780.69704</v>
-      </c>
-      <c r="L3" t="n">
-        <v>130.78135</v>
-      </c>
-      <c r="M3" t="n">
-        <v>15.15653</v>
-      </c>
-      <c r="N3" t="n">
-        <v>20.87551</v>
-      </c>
-      <c r="O3" t="n">
-        <v>651.88472</v>
-      </c>
-      <c r="P3" t="n">
-        <v>564.14878</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>96.00509</v>
-      </c>
-      <c r="R3" t="n">
-        <v>52.88188</v>
-      </c>
-      <c r="S3" t="n">
-        <v>75.89597999999999</v>
-      </c>
-      <c r="T3" t="n">
-        <v>92.59161</v>
-      </c>
-      <c r="U3" t="n">
-        <v>118.12915</v>
-      </c>
-      <c r="V3" t="n">
-        <v>335.31826</v>
-      </c>
-      <c r="W3" t="n">
-        <v>266.24619</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1142.52253</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3818.97215</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>766.3543100000001</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>428.80629</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>25.57917</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>889.92511</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1785.25963</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>542.43674</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>542.7926</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>256.31637</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>163.03067</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>710.34907</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>172.20113</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>158.86943</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>305.09824</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>342.00004</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2350.2548</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>110.29064</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>489.81369</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1868.73363</v>
-      </c>
-      <c r="D4" t="n">
-        <v>125.41127</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.21349</v>
-      </c>
-      <c r="F4" t="n">
-        <v>19.79917</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1590.70865</v>
-      </c>
-      <c r="H4" t="n">
-        <v>257.02141</v>
-      </c>
-      <c r="I4" t="n">
-        <v>480.16296</v>
-      </c>
-      <c r="J4" t="n">
-        <v>157.99964</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22268.47715</v>
-      </c>
-      <c r="L4" t="n">
-        <v>123.73077</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13.79199</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19.52876</v>
-      </c>
-      <c r="O4" t="n">
-        <v>673.5733300000001</v>
-      </c>
-      <c r="P4" t="n">
-        <v>540.43741</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>99.78331</v>
-      </c>
-      <c r="R4" t="n">
-        <v>61.58546</v>
-      </c>
-      <c r="S4" t="n">
-        <v>69.94347</v>
-      </c>
-      <c r="T4" t="n">
-        <v>90.60431</v>
-      </c>
-      <c r="U4" t="n">
-        <v>114.00972</v>
-      </c>
-      <c r="V4" t="n">
-        <v>331.35136</v>
-      </c>
-      <c r="W4" t="n">
-        <v>280.10232</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1499.92556</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3962.42174</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>795.42659</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>406.81669</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>20.60643</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>950.7325</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1775.5393</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>525.88219</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>564.95421</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>277.51131</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>155.10368</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>718.63151</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>174.52878</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>161.13892</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>272.51439</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>346.17222</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1969.75451</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>117.68009</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
